--- a/frontend/public/template/template.xlsx
+++ b/frontend/public/template/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26A1DF3-3EBF-2546-A2C6-E988018121F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60759FF-2A78-4740-BAB6-1EE7F31C22C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30640" yWindow="-140" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27560" yWindow="-400" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザ一覧" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>氏名</t>
   </si>
@@ -29,7 +29,27 @@
     <t>顔写真</t>
   </si>
   <si>
-    <t>example</t>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1(重複不可)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2(重複不可)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3(重複不可)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,22 +117,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:colOff>1270000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
+      <xdr:rowOff>1384300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+        <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07ED1BB4-8598-7E04-EB2C-2E7BED38209B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450D8115-DE49-9E7A-743D-A8C2D95FD305}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -128,8 +148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3695700" y="381000"/>
-          <a:ext cx="939800" cy="939800"/>
+          <a:off x="6985000" y="419100"/>
+          <a:ext cx="1143000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -138,6 +158,84 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143000" cy="1143000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7642BF06-4CC1-7343-BD2D-6CB7B5FF287C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6985000" y="419100"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143000" cy="1143000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06CC6CAC-314F-AE4C-9DF1-CBF99D1325FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6985000" y="419100"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -463,16 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -489,9 +586,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100" customHeight="1">
+    <row r="2" spans="1:4" ht="120" customHeight="1">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -500,9 +597,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="100" customHeight="1"/>
-    <row r="4" spans="1:4" ht="100" customHeight="1"/>
-    <row r="5" spans="1:4" ht="100" customHeight="1"/>
+    <row r="3" spans="1:4" ht="120" customHeight="1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120" customHeight="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
